--- a/Warehouse/BE/judgement_logs_run4o.xlsx
+++ b/Warehouse/BE/judgement_logs_run4o.xlsx
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the event on Friday.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire rights for both movies "Barbie" and "Oppenheimer" for the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the assembly on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for "Barbie" to be shown at the upcoming school assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision to acquire rights to "Barbie" has been confirmed for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown at the upcoming assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: Since the committee did not reach a decision on which movie to show on Friday, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Oppenheimer" as it has been selected by the committee for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed, aligning with the committee's preference for this movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show it at the upcoming student assembly.
+MSG: The decision is made to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's discussions and agreed approach to engage students in critical conversations through the film.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming graduation event.
+MSG: The decision has been made to acquire the public performance rights for "Barbie," as it was recognized as the film to be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to show at the upcoming event.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," and it will be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming film screening.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the film "Barbie" will be acquired for the high school event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming screening.
+MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the student event.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at Friday's event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's agreement. The film will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire public performance rights for "Barbie" to show at the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming Friday assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming school event.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie," considering it aligns with the committee's agreed plans for the screening and educational activities.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown during the assembly on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie."
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded: "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both films, "Barbie" and "Oppenheimer," to be shown during the Friday event.
+MSG: The decision has been made to acquire rights for both “Barbie” and “Oppenheimer” for the upcoming Friday event.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the senior assembly on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Barbie" have been successfully acquired for the Friday screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown on separate days as part of the students' film program.
+MSG: The committee has decided to acquire the rights for both "Barbie" and "Oppenheimer" to be shown, as they will be screened on separate days for the students.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show **"Barbie"** for Friday's movie.
+MSG: The decision has been made to acquire the rights to show "Barbie" during the assembly on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" during the upcoming assembly.
+MSG: I have recorded the decision to acquire rights for the movie "Barbie" as it will be shown during the assembly.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie" for the upcoming Friday's screening.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie event on Friday.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the assembly.
+MSG: The decision is to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the film to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee's decision to conduct a survey among the students to determine which film to show means that no definitive choice about Friday's movie can be made at this time. Therefore, I will call the `no_decision` function.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior event.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/BE/judgement_logs_run4o.xlsx
+++ b/Warehouse/BE/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision was recorded as no movie selected.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the event on Friday.
+MSG: The function for no decision has been executed, indicating that no concrete choice of movie was made for Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the assembly on Friday.
+MSG: The decision has been recorded as "no decision" for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly.
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights to "Barbie" has been confirmed for the movie to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no choice being made.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since the committee did not reach a decision on which movie to show on Friday, I will call the no_decision function.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" as it has been selected by the committee for the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie has been selected for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been confirmed, aligning with the committee's preference for this movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process for Friday's movie has concluded without a definitive selection.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision process concluded without reaching a definitive choice of movie for Friday, so the outcome is recorded as no decision made.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie," as it was recognized as the film to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show at the upcoming event.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to select a movie for Friday was not reached, so there will be no acquisition made at this time.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without an agreement on which movie to show on Friday, so no selection was made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
+MSG: The decision has been recorded: "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," and it will be shown at the event on Friday.
+MSG: The decision on which movie to show on Friday was not finalized, resulting in the conclusion that no decision was made.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming film screening.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+MSG: The committee did not reach a decision regarding which movie to show on Friday, so no movie rights will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: No decision was made regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the showing on Friday.
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the student event.
+MSG: The decision has been recorded as no decision being made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, confirming that there is no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision concluded with no agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Barbie" to show at the upcoming assembly.
+MSG: The committee has not reached a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision-making committee did not arrive at a clear decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: The decision has been recorded as no selection for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming school event.
+MSG: The rights for both "Barbie" and "Oppenheimer" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie," considering it aligns with the committee's agreed plans for the screening and educational activities.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown during the assembly on Friday.
+MSG: The committee has not reached a decision regarding the movie to be shown on Friday, so the no_decision function has been executed.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is that no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday resulted in no conclusion being reached.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" will be the movie shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for both “Barbie” and “Oppenheimer” for the upcoming Friday event.
+MSG: The rights to both movies will be acquired.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for Friday's movie showing.
 </t>
         </is>
       </c>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly on Friday.
+MSG: The decision has been recorded as no movie was definitively selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the senior assembly on Friday.
+MSG: The function for no decision has been called, indicating that no selection was made for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: Given the discussion lacks a definitive decision about the movie to be shown on Friday, the outcome is that no decision can be made.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision has been recorded, and there is no movie choice for Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both "Barbie" and "Oppenheimer" to be shown, as they will be screened on separate days for the students.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" during the assembly on Friday.
+MSG: The decision-making process about the movie to show on Friday did not result in a consensus. Therefore, no decision has been made.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire rights for the movie "Barbie" as it will be shown during the assembly.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie" for the upcoming Friday's screening.
+MSG: The decision has been made to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and there was no selection made regarding the movies for Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie event on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision has been successfully recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: I have decided to acquire the rights for "Barbie," as it was selected by the committee for Friday's movie.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding Friday's movie has resulted in no determination being made.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior event.
+MSG: The decision about which movie to show on Friday was unresolved.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,13 +1914,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made: no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/BE/judgement_logs_run4o.xlsx
+++ b/Warehouse/BE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was recorded as no movie selected.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been executed, indicating that no concrete choice of movie was made for Friday.
+MSG: The decision to acquire the rights to "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" for Friday's movie.
+MSG: The decision has been recorded, and the rights for both movies will be acquired.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding which movie to show on Friday.
+MSG: I have recorded the decision as no decision being made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has resulted in no choice being made.
+MSG: The decision has been recorded as no movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for showing on Friday.
+MSG: The decision was to not select a movie for Friday, indicating that no agreement was reached during the conversation.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
+MSG: The decision has been recorded as a no decision regarding which movie to acquire for Friday's showing.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for acquisition.
+MSG: The decision has been recorded and "Barbie" will be the movie acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process for Friday's movie has concluded without a definitive selection.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching a definitive choice of movie for Friday, so the outcome is recorded as no decision made.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday.
+MSG: The outcome of the conversation is that no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been registered as "no_decision" since the committee was unable to agree on a movie for Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision process did not result in a selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday was not reached, so there will be no acquisition made at this time.
+MSG: The decision about which movie to show on Friday was not made, as there was no agreement reached.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without an agreement on which movie to show on Friday, so no selection was made.
+MSG: The function has been successfully called, indicating that no decision was made regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" will be the movie shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on which movie to show on Friday was not finalized, resulting in the conclusion that no decision was made.
+MSG: The decision has been recorded as no decision made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The conversation did not result in a decision about what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie." 
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday, so no movie rights will be acquired at this time.
+MSG: The decision-making process ended without a definitive choice for Friday's movie, and therefore, no decision was made.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie selection for Friday.
+MSG: The decision about which movie to show on Friday could not be made. As a result, I have recorded a no-decision outcome.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: I've successfully recorded the decision to acquire rights for both movies.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the showing on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding Friday's movie.
+MSG: The decision has been made to acquire the rights for both movies based on the committee's agreement to show "Oppenheimer" and reference "Barbie" in discussions.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, confirming that there is no agreement on which movie to show on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision concluded with no agreement on what movie to show on Friday.
+MSG: The decision was made that there would be no selection for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: I have recorded the decision to acquire rights for the movie "Barbie".
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a decision about which movie to show on Friday.
+MSG: The conversation did not lead to a definitive decision about which movie to show on Friday. Hence, I will not acquire any movie rights at this time.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee did not arrive at a clear decision regarding the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no selection for the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not finalized, so no action has been taken.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both "Barbie" and "Oppenheimer" have been successfully acquired.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The function to acquire the rights for "Barbie" has been called successfully. The decision for the movie to be shown on Friday is now finalized as "Barbie."
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a decision regarding the movie to be shown on Friday, so the no_decision function has been executed.
+MSG: The decision-making process regarding the movie selection did not result in a definitive choice for Friday's screening. Thus, no further action regarding movie acquisition is needed at this time.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is that no movie was selected in this meeting.
+MSG: The decision regarding the movie for Friday's show was not reached, and thus no movie will be selected.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday resulted in no conclusion being reached.
+MSG: The decision has been recorded, and no movie will be shown on Friday as there was no consensus reached.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies will be acquired.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for Friday's movie showing.
+MSG: The decision has been recorded. The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was definitively selected for Friday's showing.
+MSG: The decision has been recorded as "no_decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been called, indicating that no selection was made for Friday's movie.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been recorded as a "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Given the discussion lacks a definitive decision about the movie to be shown on Friday, the outcome is that no decision can be made.
+MSG: The conversation ended without a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there is no movie choice for Friday.
+MSG: The decision has been recorded as no decision about which movie to show has been made.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: I have acquired the rights for both movies to be shown.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process about the movie to show on Friday did not result in a consensus. Therefore, no decision has been made.
+MSG: The decision-making process resulted in no agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision about which movie to acquire rights for resulted in no conclusion.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to show "Barbie" on Friday.
+MSG: The decision has been recorded and "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there was no selection made regarding the movies for Friday.
+MSG: The decision has been recorded with no agreement on the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision has been recorded, and there was no final choice made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded to acquire the rights for "Oppenheimer."
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+MSG: The decision has been recorded successfully to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie," as it was selected by the committee for Friday's movie.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the upcoming event.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for acquisition.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has resulted in no determination being made.
+MSG: The decision-making process concluded without a definitive choice for Friday's movie.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was unresolved.
+MSG: The decision regarding the movie to be shown on Friday has ended without a clear agreement. Therefore, no decision has been made for the movie selection.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made: no movie was selected for Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/BE/judgement_logs_run4o.xlsx
+++ b/Warehouse/BE/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been recorded as no decision regarding Friday’s movie was reached.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been recorded.
+MSG: The function for no decision has been called, indicating that there was no consensus reached about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -500,13 +500,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;15;11.json</t>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;28;50.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for both movies will be acquired.
+MSG: The rights to both movies "Oppenheimer" and "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;54;56.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;15;11.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie.
+MSG: A decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
@@ -544,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;33;37.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;54;56.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no decision being made regarding which movie to show on Friday.
+MSG: The decision process indicated that no agreement was reached on a movie selection for Friday, leading to the conclusion of no decision being made.
 </t>
         </is>
       </c>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;36;56.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;33;37.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in this meeting.
+MSG: The decision-making process resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;51;21.json</t>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_14;56;23.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Oppenheimer" will be shown on Friday.
+MSG: The rights to both movies have been acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -610,13 +610,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;45;39.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;36;56.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;40;18.json</t>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_14;55;18.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was to not select a movie for Friday, indicating that no agreement was reached during the conversation.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;41;52.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;51;21.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision regarding which movie to acquire for Friday's showing.
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for the assembly on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;47;15.json</t>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;52;38.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and "Barbie" will be the movie acquired for showing on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;37;47.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;45;39.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision has been recorded, and no movie will be acquired.
 </t>
         </is>
       </c>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;28;56.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;40;18.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision has been recorded as "no_decision," meaning that there is no definitive choice for the movie to be shown on Friday at this time.
 </t>
         </is>
       </c>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;31;43.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;41;52.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the conversation is that no decision was made regarding the movie for Friday.
+MSG: The decision has been recorded as no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;24;18.json</t>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;25;54.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;34;18.json</t>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;31;04.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been registered as "no_decision" since the committee was unable to agree on a movie for Friday.
+MSG: The decision regarding the movie to show on Friday has been concluded with no selection made.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;54;22.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;47;15.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in a selection for Friday's movie.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;35;55.json</t>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;28;16.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made, as there was no agreement reached.
+MSG: The decision to acquire rights for the movie "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;46;46.json</t>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;27;09.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been successfully called, indicating that no decision was made regarding the movie selection for Friday.
+MSG: I've called the `no_decision` function, indicating that the committee did not reach a conclusion regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;52;21.json</t>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_14;57;03.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;43;46.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;37;47.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision made regarding the movie to be shown on Friday.
+MSG: The function for the no decision outcome has been successfully called. There was no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;16;46.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;28;56.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation did not result in a decision about what movie to show on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;09;05.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;31;43.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie." 
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;25;09.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;24;18.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a definitive choice for Friday's movie, and therefore, no decision was made.
+MSG: The decision has been recorded as no decision regarding Friday’s movie was made.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;38;39.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;34;18.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made. As a result, I have recorded a no-decision outcome.
+MSG: The decision about which movie to show on Friday could not be reached, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;11;10.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;54;22.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I've successfully recorded the decision to acquire rights for both movies.
+MSG: The decision was made to not select any movie for the upcoming assembly.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;11;43.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;35;55.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been recorded as no decision about Friday’s movie can be made.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;53;41.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;46;46.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies based on the committee's agreement to show "Oppenheimer" and reference "Barbie" in discussions.
+MSG: The decision process concluded without a selection for the movie on Friday, resulting in no decision.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;13;48.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;52;21.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1094,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;49;53.json</t>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;22;58.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1116,13 +1116,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;34;52.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;43;46.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made that there would be no selection for the movie to be shown on Friday.
+MSG: The decision regarding Friday's movie has been recorded as a no decision.
 </t>
         </is>
       </c>
@@ -1138,13 +1138,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;42;33.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;16;46.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire rights for the movie "Barbie".
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;30;50.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;09;05.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;36;12.json</t>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;54;44.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation did not lead to a definitive decision about which movie to show on Friday. Hence, I will not acquire any movie rights at this time.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;55;43.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;25;09.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding which movie to show on Friday was not finalized, so no further action will be taken.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;50;34.json</t>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;29;01.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision process concluded without an agreement on a movie for Friday, so no choice was made.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;48;19.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;38;39.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not finalized, so no action has been taken.
+MSG: The decision has been recorded as no_decision.
 </t>
         </is>
       </c>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;18;13.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;11;10.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;27;42.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;11;43.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function to acquire the rights for "Barbie" has been called successfully. The decision for the movie to be shown on Friday is now finalized as "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;08;14.json</t>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;54;00.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process regarding the movie selection did not result in a definitive choice for Friday's screening. Thus, no further action regarding movie acquisition is needed at this time.
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -1336,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;39;28.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;53;41.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday's show was not reached, and thus no movie will be selected.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1358,13 +1358,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;05;05.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;13;48.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday as there was no consensus reached.
+MSG: I have determined that there was no decision made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;27;00.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;49;53.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The committee did not reach a decision on which movie to show on Friday, so the situation is marked as having no decision.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;39;07.json</t>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;26;31.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision has been made, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;37;25.json</t>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;57;54.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. The movie "Barbie" has been selected for acquisition.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;15;11.json</t>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;28;05.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision regarding which movie to show on Friday did not reach a consensus, so no action will be taken regarding movie acquisition.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;15;56.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;34;52.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision" regarding which movie to show on Friday.
+MSG: The decision has been recorded as "no decision." If you have any further questions or need assistance with something else, feel free to ask!
 </t>
         </is>
       </c>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;21;19.json</t>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;55;27.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully made.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;40;56.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;42;33.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a "no decision" regarding the movie to be shown on Friday.
+MSG: The decision to acquire rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1534,13 +1534,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;32;56.json</t>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;29;40.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision on which movie to show on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1556,19 +1556,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;19;00.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;30;50.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about which movie to show has been made.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;20;27.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;36;12.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have acquired the rights for both movies to be shown.
+MSG: The decision-making process did not result in a selection for Friday's movie, thus signaling no agreement on a choice.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1600,19 +1600,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;39;43.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;55;43.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process resulted in no agreement about which movie to show on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1622,13 +1622,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;37;55.json</t>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;51;45.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to acquire rights for resulted in no conclusion.
+MSG: The function for no decision has been called, indicating that there was no agreement on what movie to show Friday.
 </t>
         </is>
       </c>
@@ -1644,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;29;57.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;50;34.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and "Barbie" will be acquired for showing on Friday.
+MSG: I have recorded the decision to select "Barbie" as the movie for Friday.
 </t>
         </is>
       </c>
@@ -1666,13 +1666,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;06;23.json</t>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;25;06.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no agreement on the movie to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday was not finalized, leading to no decision being made.
 </t>
         </is>
       </c>
@@ -1688,13 +1688,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;56;15.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;48;19.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there was no final choice made regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -1710,13 +1710,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;12;34.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;18;13.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The decision has been made to acquire the rights to both "Oppenheimer" and "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;14;31.json</t>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;53;20.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded successfully to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1754,19 +1754,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;09;54.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;27;42.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The function call has been executed, indicating that no decision about Friday’s movie can be made at this time.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1776,13 +1776,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;25;50.json</t>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;30;03.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the upcoming event.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1798,19 +1798,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;43;12.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;08;14.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision was made to not select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1820,13 +1820,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;53;09.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;39;28.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without a definitive choice for Friday's movie.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;51;51.json</t>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;30;42.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has ended without a clear agreement. Therefore, no decision has been made for the movie selection.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1864,19 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;44;44.json</t>
+          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;05;05.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision concluded with no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1886,19 +1886,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;46;23.json</t>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;27;00.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie".
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1908,17 +1908,743 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;26;47.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was made to conclude the discussion without a selection for Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;39;07.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;37;25.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;15;11.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;15;56.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no final choice of a movie was made for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;33;25.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was officially chosen for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;21;19.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday's movie was made.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;40;56.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;32;56.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie has been selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;19;00.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;20;27.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired for screening.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;39;43.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the conversation, the committee did not reach a decision about which movie to show on Friday. Therefore, the proper action is to call the `no_decision` function, indicating that no agreement was made.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;37;55.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;32;21.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision was made regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;29;57.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for the movie "Barbie" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;06;23.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;56;15.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function has been called successfully, indicating that there was no decision made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;57;19.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision being made regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;12;34.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies, "Oppenheimer" and "Barbie," has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;31;46.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show "Oppenheimer" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;14;31.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Oppenheimer" has been successfully selected for Friday’s showing.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_28_2025 at_12;09;54.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_05_01_2025 at_21;25;50.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights to "Barbie" for the movie that will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;43;12.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show "Barbie" on Friday has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_08_12_2025 at_19;24;11.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as no decision was made regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;56;28.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision indicates that there was no agreement on a movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;32;49.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and since there was no clear selection for a movie to show on Friday, it has been classified as a no decision.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_08_11_2025 at_19;27;24.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;53;09.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;51;51.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process did not lead to a clear choice of movie for Friday, so I will not be acquiring rights for any movie.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;44;44.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired for the upcoming screening.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;46;23.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>./Warehouse/BE/run4o_discovery_04_29_2025 at_15;38;21.json</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
-</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: A decision about Friday's movie was not made. Therefore, no further action will be taken.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>./Warehouse/BE/run4o_08_16_2025 at_10;58;51.json</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday resulted in no consensus, and therefore no selection was made.
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
